--- a/grupos/1AV - Estadisticos 20211.xlsx
+++ b/grupos/1AV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="173">
   <si>
     <t>Materia</t>
   </si>
@@ -200,10 +200,10 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Saucedo Rivalcoba Graciela</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>Saucedo Rivalcoba Graciela</t>
   </si>
   <si>
     <t>Bautista Sarao Eutiquio</t>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X4">
         <v>9</v>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X5">
         <v>7</v>
@@ -1188,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1242,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X6">
         <v>8</v>
@@ -1265,7 +1265,7 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -1319,7 +1319,7 @@
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X7">
         <v>7</v>
@@ -1342,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X8">
         <v>10</v>
@@ -1419,7 +1419,7 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -1473,7 +1473,7 @@
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X9">
         <v>9</v>
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X11">
         <v>9</v>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -1704,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X12">
         <v>7</v>
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -1935,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X15">
         <v>9</v>
@@ -2035,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -2089,7 +2089,7 @@
         <v>7</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X17">
         <v>9</v>
@@ -2112,7 +2112,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -2166,7 +2166,7 @@
         <v>-1</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X18">
         <v>8</v>
@@ -2189,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -2243,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>8</v>
@@ -2651,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2705,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X25">
         <v>10</v>
@@ -2728,7 +2728,7 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -2782,7 +2782,7 @@
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X26">
         <v>6</v>
@@ -2805,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>9</v>
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X27">
         <v>9</v>
@@ -2882,7 +2882,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -2936,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X28">
         <v>8</v>
@@ -3113,7 +3113,7 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -3167,7 +3167,7 @@
         <v>6</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X31">
         <v>9</v>
@@ -3190,7 +3190,7 @@
         <v>6</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -3244,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X32">
         <v>7</v>
@@ -3267,7 +3267,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X33">
         <v>7</v>
@@ -3421,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -3475,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X35">
         <v>10</v>
@@ -3575,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>7</v>
@@ -3629,7 +3629,7 @@
         <v>7</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X37">
         <v>7</v>
@@ -3883,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>9</v>
@@ -3937,7 +3937,7 @@
         <v>6</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X41">
         <v>9</v>
@@ -3960,7 +3960,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>9</v>
@@ -4014,7 +4014,7 @@
         <v>6</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X42">
         <v>9</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -4088,27 +4088,30 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>51.28</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>9.300000000000001</v>
+      </c>
       <c r="I2">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4117,25 +4120,25 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>51.28</v>
+        <v>58.97</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>48.72</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4320,7 +4323,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4380,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4440,7 +4443,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4500,7 +4503,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4560,7 +4563,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4620,7 +4623,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4680,7 +4683,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4740,7 +4743,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4800,7 +4803,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4860,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4920,7 +4923,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4980,7 +4983,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5040,7 +5043,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5100,7 +5103,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5160,7 +5163,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5220,7 +5223,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5280,7 +5283,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5340,7 +5343,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5400,7 +5403,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5460,7 +5463,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5520,7 +5523,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5580,7 +5583,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5640,7 +5643,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5700,7 +5703,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5760,7 +5763,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5820,7 +5823,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5880,7 +5883,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5940,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6000,7 +6003,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6060,7 +6063,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6120,7 +6123,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6180,7 +6183,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6240,7 +6243,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6300,7 +6303,7 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6360,7 +6363,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6420,7 +6423,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6480,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6540,7 +6543,7 @@
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6600,7 +6603,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6660,7 +6663,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6720,7 +6723,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6780,7 +6783,7 @@
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6840,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6900,7 +6903,7 @@
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6960,7 +6963,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7020,7 +7023,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7080,7 +7083,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7140,7 +7143,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7200,7 +7203,7 @@
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7260,7 +7263,7 @@
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7320,7 +7323,7 @@
         <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7380,7 +7383,7 @@
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7440,7 +7443,7 @@
         <v>8</v>
       </c>
       <c r="F158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7500,7 +7503,7 @@
         <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7560,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7620,7 +7623,7 @@
         <v>6</v>
       </c>
       <c r="F167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7680,7 +7683,7 @@
         <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7740,7 +7743,7 @@
         <v>6</v>
       </c>
       <c r="F173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7800,7 +7803,7 @@
         <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7860,7 +7863,7 @@
         <v>6</v>
       </c>
       <c r="F179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7920,7 +7923,7 @@
         <v>8</v>
       </c>
       <c r="F182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7980,7 +7983,7 @@
         <v>6</v>
       </c>
       <c r="F185" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8040,7 +8043,7 @@
         <v>8</v>
       </c>
       <c r="F188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8100,7 +8103,7 @@
         <v>6</v>
       </c>
       <c r="F191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -8160,7 +8163,7 @@
         <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8220,7 +8223,7 @@
         <v>6</v>
       </c>
       <c r="F197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8280,7 +8283,7 @@
         <v>8</v>
       </c>
       <c r="F200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8340,7 +8343,7 @@
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8400,7 +8403,7 @@
         <v>8</v>
       </c>
       <c r="F206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8460,7 +8463,7 @@
         <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8520,7 +8523,7 @@
         <v>8</v>
       </c>
       <c r="F212" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8580,7 +8583,7 @@
         <v>6</v>
       </c>
       <c r="F215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8640,7 +8643,7 @@
         <v>8</v>
       </c>
       <c r="F218" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8700,7 +8703,7 @@
         <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8760,7 +8763,7 @@
         <v>8</v>
       </c>
       <c r="F224" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8820,7 +8823,7 @@
         <v>6</v>
       </c>
       <c r="F227" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8880,7 +8883,7 @@
         <v>8</v>
       </c>
       <c r="F230" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8940,7 +8943,7 @@
         <v>6</v>
       </c>
       <c r="F233" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -9687,7 +9690,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9722,22 +9725,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920002</v>
+        <v>21330051920003</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -9745,22 +9748,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920002</v>
+        <v>21330051920003</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -9768,22 +9771,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920291</v>
+        <v>21330051920005</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9791,22 +9794,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920291</v>
+        <v>21330051920005</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -9814,22 +9817,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920355</v>
+        <v>21330051920006</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -9837,22 +9840,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920355</v>
+        <v>21330051920006</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -9860,16 +9863,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920379</v>
+        <v>21330051920017</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -9883,22 +9886,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920379</v>
+        <v>21330051920017</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -9906,22 +9909,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920001</v>
+        <v>21330051920379</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -9929,22 +9932,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920004</v>
+        <v>21330051920379</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -9952,19 +9955,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920008</v>
+        <v>21330051920002</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -9975,19 +9978,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920049</v>
+        <v>20330051920291</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
@@ -9998,277 +10001,24 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920010</v>
+        <v>21330051920355</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21330051920011</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920391</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>21330051920015</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920022</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>21330051920018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>21330051920356</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>21330051920019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>21330051920021</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>21330051920022</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>21330051920027</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>21330051920028</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/1AV - Estadisticos 20211.xlsx
+++ b/grupos/1AV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="177">
   <si>
     <t>Materia</t>
   </si>
@@ -173,6 +173,9 @@
     <t>TZOMPAXTLE COXCAHUA OMAR</t>
   </si>
   <si>
+    <t>URBINA TREJO ANGEL YAIR</t>
+  </si>
+  <si>
     <t>Docente</t>
   </si>
   <si>
@@ -230,75 +233,222 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ANGELES</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>COBOS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MACIEL</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TAMAYO</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>ROCHA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>MONFIL</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>FRIAS</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>NAZARIO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO</t>
+  </si>
+  <si>
+    <t>KEVIN ISAAC</t>
+  </si>
+  <si>
+    <t>EDGAR FLORENCIO</t>
+  </si>
+  <si>
+    <t>YOLET</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>ORLANDO</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>MARIA VALERIA</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>DAVID DANIEL</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>LUIS ARMANDO</t>
+  </si>
+  <si>
+    <t>EBER</t>
+  </si>
+  <si>
+    <t>NEMESIO NAHIM</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>JOSMAR JAHIR</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>ANGEL YAIR</t>
+  </si>
+  <si>
     <t>ACEVEDO</t>
   </si>
   <si>
-    <t>ANGELES</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>COBOS</t>
-  </si>
-  <si>
     <t>COSCAHUA</t>
   </si>
   <si>
     <t>CUATRA</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>GOMEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MACIEL</t>
-  </si>
-  <si>
     <t>MIXCOA</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
     <t>PERALTA</t>
   </si>
   <si>
@@ -308,117 +458,48 @@
     <t>RAMOS</t>
   </si>
   <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
     <t>ROSAS</t>
   </si>
   <si>
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TAMAYO</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
     <t>TZOMPAXTLE</t>
   </si>
   <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>ROCHA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
     <t>CANTU</t>
   </si>
   <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
     <t>TZOYONTLE</t>
   </si>
   <si>
     <t>COYOHUA</t>
   </si>
   <si>
-    <t>MONFIL</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>FRIAS</t>
-  </si>
-  <si>
     <t>MORA</t>
   </si>
   <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
     <t>JACOBO</t>
   </si>
   <si>
-    <t>NAZARIO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
     <t>CORTES</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
     <t>GALLARDO</t>
   </si>
   <si>
     <t>MEDINA</t>
   </si>
   <si>
-    <t>PEÑA</t>
-  </si>
-  <si>
     <t>SORIA</t>
   </si>
   <si>
     <t>ATENOGENES</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
     <t>COXCAHUA</t>
   </si>
   <si>
@@ -428,84 +509,30 @@
     <t>ALDAHIR</t>
   </si>
   <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO</t>
-  </si>
-  <si>
     <t>ITZEEL GUADALUPE</t>
   </si>
   <si>
-    <t>KEVIN ISAAC</t>
-  </si>
-  <si>
-    <t>EDGAR FLORENCIO</t>
-  </si>
-  <si>
-    <t>YOLET</t>
-  </si>
-  <si>
     <t>JUAN DIEGO</t>
   </si>
   <si>
     <t>RAFAEL</t>
   </si>
   <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>ORLANDO</t>
-  </si>
-  <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
     <t>JOSE DAMIAN</t>
   </si>
   <si>
-    <t>MARIA VALERIA</t>
-  </si>
-  <si>
     <t>ANDRES</t>
   </si>
   <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
-  </si>
-  <si>
     <t>JOSE MANUEL</t>
   </si>
   <si>
     <t>VICTOR ISRAEL</t>
   </si>
   <si>
-    <t>DAVID DANIEL</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
     <t>JOSE EDUARDO</t>
   </si>
   <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>LUIS ARMANDO</t>
-  </si>
-  <si>
     <t>CARLOS</t>
   </si>
   <si>
@@ -515,25 +542,10 @@
     <t>GERSON UZIEL</t>
   </si>
   <si>
-    <t>EBER</t>
-  </si>
-  <si>
     <t>JESUS EMMANUEL</t>
   </si>
   <si>
     <t>RICARDO</t>
-  </si>
-  <si>
-    <t>NEMESIO NAHIM</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>JOSMAR JAHIR</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
   </si>
   <si>
     <t>JAFET</t>
@@ -894,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2346,7 +2358,7 @@
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -2400,7 +2412,7 @@
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2423,7 +2435,7 @@
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -2477,7 +2489,7 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2500,7 +2512,7 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -2554,7 +2566,7 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2577,7 +2589,7 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2631,7 +2643,7 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -3347,7 +3359,7 @@
         <v>-1</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -3401,7 +3413,7 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3501,7 +3513,7 @@
         <v>-1</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -3555,7 +3567,7 @@
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -4021,6 +4033,83 @@
       </c>
       <c r="Y42">
         <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>-1</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>-1</v>
+      </c>
+      <c r="O43">
+        <v>-1</v>
+      </c>
+      <c r="P43">
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>-1</v>
+      </c>
+      <c r="R43">
+        <v>-1</v>
+      </c>
+      <c r="S43">
+        <v>-1</v>
+      </c>
+      <c r="T43">
+        <v>-1</v>
+      </c>
+      <c r="U43">
+        <v>-1</v>
+      </c>
+      <c r="V43">
+        <v>-1</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -4050,31 +4139,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4082,10 +4171,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -4094,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>51.28</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4103,10 +4192,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>48.72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4114,10 +4203,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>23</v>
@@ -4126,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4135,10 +4224,10 @@
         <v>8.1</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4146,10 +4235,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -4158,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4167,10 +4256,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4178,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -4190,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>64.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4199,10 +4288,10 @@
         <v>6.6</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>35.9</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4210,10 +4299,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>27</v>
@@ -4222,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>69.23</v>
+        <v>67.5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4231,10 +4320,10 @@
         <v>6.3</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>30.77</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4242,31 +4331,31 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>74.36</v>
+        <v>77.5</v>
       </c>
       <c r="G7">
-        <v>2.56</v>
+        <v>12.5</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>23.08</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4276,7 +4365,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4288,16 +4377,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -4308,19 +4397,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>21330051920001</v>
+        <v>21330051920002</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -4328,119 +4417,119 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>21330051920001</v>
+        <v>21330051920003</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>21330051920001</v>
+        <v>21330051920003</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21330051920001</v>
+        <v>21330051920005</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21330051920001</v>
+        <v>21330051920005</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920001</v>
+        <v>21330051920006</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920002</v>
+        <v>21330051920006</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
@@ -4448,79 +4537,79 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920002</v>
+        <v>21330051920007</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920002</v>
+        <v>21330051920007</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920002</v>
+        <v>21330051920007</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920002</v>
+        <v>21330051920380</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
@@ -4528,159 +4617,159 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920002</v>
+        <v>21330051920380</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920003</v>
+        <v>21330051920380</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>21330051920003</v>
+        <v>21330051920380</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920003</v>
+        <v>21330051920380</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920003</v>
+        <v>21330051920380</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>21330051920003</v>
+        <v>20330051920291</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920003</v>
+        <v>21330051920009</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920004</v>
+        <v>21330051920009</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
@@ -4688,19 +4777,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920004</v>
+        <v>21330051920009</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -4708,59 +4797,59 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920004</v>
+        <v>21330051920009</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920004</v>
+        <v>21330051920355</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920004</v>
+        <v>21330051920012</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>62</v>
@@ -4768,19 +4857,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920004</v>
+        <v>21330051920012</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>65</v>
@@ -4788,19 +4877,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920005</v>
+        <v>21330051920012</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
@@ -4808,39 +4897,39 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
         <v>64</v>
@@ -4848,279 +4937,279 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920005</v>
+        <v>20330051920018</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920006</v>
+        <v>21330051920013</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920006</v>
+        <v>21330051920013</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920006</v>
+        <v>21330051920013</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920006</v>
+        <v>21330051920013</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920006</v>
+        <v>21330051920013</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920006</v>
+        <v>21330051920014</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920007</v>
+        <v>21330051920014</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920007</v>
+        <v>21330051920014</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920007</v>
+        <v>21330051920014</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920007</v>
+        <v>21330051920014</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920007</v>
+        <v>20330051920019</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>62</v>
@@ -5128,139 +5217,139 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>21330051920007</v>
+        <v>20330051920019</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>21330051920008</v>
+        <v>20330051920019</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>21330051920008</v>
+        <v>20330051920019</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21330051920008</v>
+        <v>20330051920019</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>21330051920008</v>
+        <v>21330051920016</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21330051920008</v>
+        <v>21330051920016</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>21330051920008</v>
+        <v>21330051920016</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
         <v>65</v>
@@ -5268,19 +5357,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920049</v>
+        <v>21330051920016</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>61</v>
@@ -5288,19 +5377,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920049</v>
+        <v>21330051920016</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
         <v>63</v>
@@ -5308,19 +5397,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920049</v>
+        <v>21330051920017</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
         <v>64</v>
@@ -5328,39 +5417,39 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920049</v>
+        <v>21330051920017</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920049</v>
+        <v>21330051920379</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
         <v>62</v>
@@ -5368,379 +5457,379 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920049</v>
+        <v>21330051920379</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>21330051920380</v>
+        <v>21330051920385</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>21330051920380</v>
+        <v>21330051920385</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>21330051920380</v>
+        <v>21330051920385</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>21330051920380</v>
+        <v>21330051920385</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>21330051920380</v>
+        <v>21330051920385</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>21330051920380</v>
+        <v>21330051920385</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920291</v>
+        <v>21330051920020</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920291</v>
+        <v>21330051920020</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920291</v>
+        <v>21330051920020</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920291</v>
+        <v>21330051920020</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920291</v>
+        <v>21330051920020</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920291</v>
+        <v>21330051920023</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>21330051920009</v>
+        <v>21330051920023</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>21330051920009</v>
+        <v>21330051920023</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>21330051920009</v>
+        <v>21330051920023</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>21330051920009</v>
+        <v>21330051920024</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>21330051920009</v>
+        <v>21330051920024</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>21330051920009</v>
+        <v>21330051920024</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
         <v>65</v>
@@ -5748,19 +5837,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>21330051920010</v>
+        <v>21330051920024</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
         <v>61</v>
@@ -5768,19 +5857,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>21330051920010</v>
+        <v>21330051920024</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
         <v>63</v>
@@ -5788,99 +5877,99 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>21330051920010</v>
+        <v>21330051920025</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>21330051920010</v>
+        <v>21330051920025</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>21330051920010</v>
+        <v>21330051920025</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>21330051920010</v>
+        <v>21330051920026</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>21330051920355</v>
+        <v>21330051920026</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
         <v>61</v>
@@ -5888,19 +5977,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>21330051920355</v>
+        <v>21330051920026</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
         <v>63</v>
@@ -5908,3082 +5997,122 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>21330051920355</v>
+        <v>21330051920393</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>21330051920355</v>
+        <v>21330051920393</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>21330051920355</v>
+        <v>21330051920393</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>21330051920355</v>
+        <v>21330051920393</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>21330051920011</v>
+        <v>21330051920393</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>21330051920011</v>
+        <v>21330051920393</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920011</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>116</v>
-      </c>
-      <c r="D88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920011</v>
-      </c>
-      <c r="B89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" t="s">
-        <v>116</v>
-      </c>
-      <c r="D89" t="s">
-        <v>149</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920011</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" t="s">
-        <v>116</v>
-      </c>
-      <c r="D90" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920011</v>
-      </c>
-      <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" t="s">
-        <v>116</v>
-      </c>
-      <c r="D91" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920012</v>
-      </c>
-      <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>80</v>
-      </c>
-      <c r="D92" t="s">
-        <v>150</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920012</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D93" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920012</v>
-      </c>
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920012</v>
-      </c>
-      <c r="B95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" t="s">
-        <v>80</v>
-      </c>
-      <c r="D95" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920012</v>
-      </c>
-      <c r="B96" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" t="s">
-        <v>80</v>
-      </c>
-      <c r="D96" t="s">
-        <v>150</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920012</v>
-      </c>
-      <c r="B97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" t="s">
-        <v>80</v>
-      </c>
-      <c r="D97" t="s">
-        <v>150</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920018</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920018</v>
-      </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" t="s">
-        <v>117</v>
-      </c>
-      <c r="D99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920018</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920018</v>
-      </c>
-      <c r="B101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920018</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>117</v>
-      </c>
-      <c r="D102" t="s">
-        <v>151</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920018</v>
-      </c>
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920013</v>
-      </c>
-      <c r="B104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" t="s">
-        <v>118</v>
-      </c>
-      <c r="D104" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920013</v>
-      </c>
-      <c r="B105" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" t="s">
-        <v>118</v>
-      </c>
-      <c r="D105" t="s">
-        <v>152</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920013</v>
-      </c>
-      <c r="B106" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" t="s">
-        <v>118</v>
-      </c>
-      <c r="D106" t="s">
-        <v>152</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920013</v>
-      </c>
-      <c r="B107" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" t="s">
-        <v>118</v>
-      </c>
-      <c r="D107" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920013</v>
-      </c>
-      <c r="B108" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" t="s">
-        <v>118</v>
-      </c>
-      <c r="D108" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920013</v>
-      </c>
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" t="s">
-        <v>118</v>
-      </c>
-      <c r="D109" t="s">
-        <v>152</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>21330051920014</v>
-      </c>
-      <c r="B110" t="s">
-        <v>86</v>
-      </c>
-      <c r="C110" t="s">
-        <v>119</v>
-      </c>
-      <c r="D110" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>21330051920014</v>
-      </c>
-      <c r="B111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111" t="s">
-        <v>119</v>
-      </c>
-      <c r="D111" t="s">
-        <v>153</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>21330051920014</v>
-      </c>
-      <c r="B112" t="s">
-        <v>86</v>
-      </c>
-      <c r="C112" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>21330051920014</v>
-      </c>
-      <c r="B113" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" t="s">
-        <v>119</v>
-      </c>
-      <c r="D113" t="s">
-        <v>153</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>21330051920014</v>
-      </c>
-      <c r="B114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114" t="s">
-        <v>119</v>
-      </c>
-      <c r="D114" t="s">
-        <v>153</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>21330051920014</v>
-      </c>
-      <c r="B115" t="s">
-        <v>86</v>
-      </c>
-      <c r="C115" t="s">
-        <v>119</v>
-      </c>
-      <c r="D115" t="s">
-        <v>153</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920019</v>
-      </c>
-      <c r="B116" t="s">
-        <v>86</v>
-      </c>
-      <c r="C116" t="s">
-        <v>120</v>
-      </c>
-      <c r="D116" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920019</v>
-      </c>
-      <c r="B117" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" t="s">
-        <v>120</v>
-      </c>
-      <c r="D117" t="s">
-        <v>154</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920019</v>
-      </c>
-      <c r="B118" t="s">
-        <v>86</v>
-      </c>
-      <c r="C118" t="s">
-        <v>120</v>
-      </c>
-      <c r="D118" t="s">
-        <v>154</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920019</v>
-      </c>
-      <c r="B119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119" t="s">
-        <v>120</v>
-      </c>
-      <c r="D119" t="s">
-        <v>154</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920019</v>
-      </c>
-      <c r="B120" t="s">
-        <v>86</v>
-      </c>
-      <c r="C120" t="s">
-        <v>120</v>
-      </c>
-      <c r="D120" t="s">
-        <v>154</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920019</v>
-      </c>
-      <c r="B121" t="s">
-        <v>86</v>
-      </c>
-      <c r="C121" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920391</v>
-      </c>
-      <c r="B122" t="s">
-        <v>87</v>
-      </c>
-      <c r="C122" t="s">
-        <v>121</v>
-      </c>
-      <c r="D122" t="s">
-        <v>155</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920391</v>
-      </c>
-      <c r="B123" t="s">
-        <v>87</v>
-      </c>
-      <c r="C123" t="s">
-        <v>121</v>
-      </c>
-      <c r="D123" t="s">
-        <v>155</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920391</v>
-      </c>
-      <c r="B124" t="s">
-        <v>87</v>
-      </c>
-      <c r="C124" t="s">
-        <v>121</v>
-      </c>
-      <c r="D124" t="s">
-        <v>155</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920391</v>
-      </c>
-      <c r="B125" t="s">
-        <v>87</v>
-      </c>
-      <c r="C125" t="s">
-        <v>121</v>
-      </c>
-      <c r="D125" t="s">
-        <v>155</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920391</v>
-      </c>
-      <c r="B126" t="s">
-        <v>87</v>
-      </c>
-      <c r="C126" t="s">
-        <v>121</v>
-      </c>
-      <c r="D126" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920391</v>
-      </c>
-      <c r="B127" t="s">
-        <v>87</v>
-      </c>
-      <c r="C127" t="s">
-        <v>121</v>
-      </c>
-      <c r="D127" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>21330051920015</v>
-      </c>
-      <c r="B128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" t="s">
-        <v>122</v>
-      </c>
-      <c r="D128" t="s">
-        <v>156</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>21330051920015</v>
-      </c>
-      <c r="B129" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" t="s">
-        <v>122</v>
-      </c>
-      <c r="D129" t="s">
-        <v>156</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21330051920015</v>
-      </c>
-      <c r="B130" t="s">
-        <v>88</v>
-      </c>
-      <c r="C130" t="s">
-        <v>122</v>
-      </c>
-      <c r="D130" t="s">
-        <v>156</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>21330051920015</v>
-      </c>
-      <c r="B131" t="s">
-        <v>88</v>
-      </c>
-      <c r="C131" t="s">
-        <v>122</v>
-      </c>
-      <c r="D131" t="s">
-        <v>156</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>21330051920015</v>
-      </c>
-      <c r="B132" t="s">
-        <v>88</v>
-      </c>
-      <c r="C132" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" t="s">
-        <v>156</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>21330051920015</v>
-      </c>
-      <c r="B133" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" t="s">
-        <v>122</v>
-      </c>
-      <c r="D133" t="s">
-        <v>156</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>21330051920016</v>
-      </c>
-      <c r="B134" t="s">
-        <v>89</v>
-      </c>
-      <c r="C134" t="s">
-        <v>123</v>
-      </c>
-      <c r="D134" t="s">
-        <v>157</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>21330051920016</v>
-      </c>
-      <c r="B135" t="s">
-        <v>89</v>
-      </c>
-      <c r="C135" t="s">
-        <v>123</v>
-      </c>
-      <c r="D135" t="s">
-        <v>157</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>21330051920016</v>
-      </c>
-      <c r="B136" t="s">
-        <v>89</v>
-      </c>
-      <c r="C136" t="s">
-        <v>123</v>
-      </c>
-      <c r="D136" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>21330051920016</v>
-      </c>
-      <c r="B137" t="s">
-        <v>89</v>
-      </c>
-      <c r="C137" t="s">
-        <v>123</v>
-      </c>
-      <c r="D137" t="s">
-        <v>157</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>21330051920016</v>
-      </c>
-      <c r="B138" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" t="s">
-        <v>123</v>
-      </c>
-      <c r="D138" t="s">
-        <v>157</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>21330051920016</v>
-      </c>
-      <c r="B139" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" t="s">
-        <v>123</v>
-      </c>
-      <c r="D139" t="s">
-        <v>157</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>21330051920017</v>
-      </c>
-      <c r="B140" t="s">
-        <v>88</v>
-      </c>
-      <c r="C140" t="s">
-        <v>124</v>
-      </c>
-      <c r="D140" t="s">
-        <v>158</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>21330051920017</v>
-      </c>
-      <c r="B141" t="s">
-        <v>88</v>
-      </c>
-      <c r="C141" t="s">
-        <v>124</v>
-      </c>
-      <c r="D141" t="s">
-        <v>158</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>21330051920017</v>
-      </c>
-      <c r="B142" t="s">
-        <v>88</v>
-      </c>
-      <c r="C142" t="s">
-        <v>124</v>
-      </c>
-      <c r="D142" t="s">
-        <v>158</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>21330051920017</v>
-      </c>
-      <c r="B143" t="s">
-        <v>88</v>
-      </c>
-      <c r="C143" t="s">
-        <v>124</v>
-      </c>
-      <c r="D143" t="s">
-        <v>158</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>21330051920017</v>
-      </c>
-      <c r="B144" t="s">
-        <v>88</v>
-      </c>
-      <c r="C144" t="s">
-        <v>124</v>
-      </c>
-      <c r="D144" t="s">
-        <v>158</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>21330051920017</v>
-      </c>
-      <c r="B145" t="s">
-        <v>88</v>
-      </c>
-      <c r="C145" t="s">
-        <v>124</v>
-      </c>
-      <c r="D145" t="s">
-        <v>158</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920022</v>
-      </c>
-      <c r="B146" t="s">
-        <v>90</v>
-      </c>
-      <c r="C146" t="s">
-        <v>124</v>
-      </c>
-      <c r="D146" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920022</v>
-      </c>
-      <c r="B147" t="s">
-        <v>90</v>
-      </c>
-      <c r="C147" t="s">
-        <v>124</v>
-      </c>
-      <c r="D147" t="s">
-        <v>159</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920022</v>
-      </c>
-      <c r="B148" t="s">
-        <v>90</v>
-      </c>
-      <c r="C148" t="s">
-        <v>124</v>
-      </c>
-      <c r="D148" t="s">
-        <v>159</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920022</v>
-      </c>
-      <c r="B149" t="s">
-        <v>90</v>
-      </c>
-      <c r="C149" t="s">
-        <v>124</v>
-      </c>
-      <c r="D149" t="s">
-        <v>159</v>
-      </c>
-      <c r="E149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920022</v>
-      </c>
-      <c r="B150" t="s">
-        <v>90</v>
-      </c>
-      <c r="C150" t="s">
-        <v>124</v>
-      </c>
-      <c r="D150" t="s">
-        <v>159</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920022</v>
-      </c>
-      <c r="B151" t="s">
-        <v>90</v>
-      </c>
-      <c r="C151" t="s">
-        <v>124</v>
-      </c>
-      <c r="D151" t="s">
-        <v>159</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>21330051920379</v>
-      </c>
-      <c r="B152" t="s">
-        <v>91</v>
-      </c>
-      <c r="C152" t="s">
-        <v>100</v>
-      </c>
-      <c r="D152" t="s">
-        <v>160</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>21330051920379</v>
-      </c>
-      <c r="B153" t="s">
-        <v>91</v>
-      </c>
-      <c r="C153" t="s">
-        <v>100</v>
-      </c>
-      <c r="D153" t="s">
-        <v>160</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>21330051920379</v>
-      </c>
-      <c r="B154" t="s">
-        <v>91</v>
-      </c>
-      <c r="C154" t="s">
-        <v>100</v>
-      </c>
-      <c r="D154" t="s">
-        <v>160</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>21330051920379</v>
-      </c>
-      <c r="B155" t="s">
-        <v>91</v>
-      </c>
-      <c r="C155" t="s">
-        <v>100</v>
-      </c>
-      <c r="D155" t="s">
-        <v>160</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>21330051920379</v>
-      </c>
-      <c r="B156" t="s">
-        <v>91</v>
-      </c>
-      <c r="C156" t="s">
-        <v>100</v>
-      </c>
-      <c r="D156" t="s">
-        <v>160</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>21330051920379</v>
-      </c>
-      <c r="B157" t="s">
-        <v>91</v>
-      </c>
-      <c r="C157" t="s">
-        <v>100</v>
-      </c>
-      <c r="D157" t="s">
-        <v>160</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>21330051920385</v>
-      </c>
-      <c r="B158" t="s">
-        <v>92</v>
-      </c>
-      <c r="C158" t="s">
-        <v>125</v>
-      </c>
-      <c r="D158" t="s">
-        <v>161</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>21330051920385</v>
-      </c>
-      <c r="B159" t="s">
-        <v>92</v>
-      </c>
-      <c r="C159" t="s">
-        <v>125</v>
-      </c>
-      <c r="D159" t="s">
-        <v>161</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>21330051920385</v>
-      </c>
-      <c r="B160" t="s">
-        <v>92</v>
-      </c>
-      <c r="C160" t="s">
-        <v>125</v>
-      </c>
-      <c r="D160" t="s">
-        <v>161</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>21330051920385</v>
-      </c>
-      <c r="B161" t="s">
-        <v>92</v>
-      </c>
-      <c r="C161" t="s">
-        <v>125</v>
-      </c>
-      <c r="D161" t="s">
-        <v>161</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>21330051920385</v>
-      </c>
-      <c r="B162" t="s">
-        <v>92</v>
-      </c>
-      <c r="C162" t="s">
-        <v>125</v>
-      </c>
-      <c r="D162" t="s">
-        <v>161</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>21330051920385</v>
-      </c>
-      <c r="B163" t="s">
-        <v>92</v>
-      </c>
-      <c r="C163" t="s">
-        <v>125</v>
-      </c>
-      <c r="D163" t="s">
-        <v>161</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>21330051920018</v>
-      </c>
-      <c r="B164" t="s">
-        <v>93</v>
-      </c>
-      <c r="C164" t="s">
-        <v>126</v>
-      </c>
-      <c r="D164" t="s">
-        <v>162</v>
-      </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>21330051920018</v>
-      </c>
-      <c r="B165" t="s">
-        <v>93</v>
-      </c>
-      <c r="C165" t="s">
-        <v>126</v>
-      </c>
-      <c r="D165" t="s">
-        <v>162</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>21330051920018</v>
-      </c>
-      <c r="B166" t="s">
-        <v>93</v>
-      </c>
-      <c r="C166" t="s">
-        <v>126</v>
-      </c>
-      <c r="D166" t="s">
-        <v>162</v>
-      </c>
-      <c r="E166" t="s">
-        <v>5</v>
-      </c>
-      <c r="F166" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>21330051920018</v>
-      </c>
-      <c r="B167" t="s">
-        <v>93</v>
-      </c>
-      <c r="C167" t="s">
-        <v>126</v>
-      </c>
-      <c r="D167" t="s">
-        <v>162</v>
-      </c>
-      <c r="E167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>21330051920018</v>
-      </c>
-      <c r="B168" t="s">
-        <v>93</v>
-      </c>
-      <c r="C168" t="s">
-        <v>126</v>
-      </c>
-      <c r="D168" t="s">
-        <v>162</v>
-      </c>
-      <c r="E168" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>21330051920018</v>
-      </c>
-      <c r="B169" t="s">
-        <v>93</v>
-      </c>
-      <c r="C169" t="s">
-        <v>126</v>
-      </c>
-      <c r="D169" t="s">
-        <v>162</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>21330051920356</v>
-      </c>
-      <c r="B170" t="s">
-        <v>94</v>
-      </c>
-      <c r="C170" t="s">
-        <v>83</v>
-      </c>
-      <c r="D170" t="s">
-        <v>163</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>21330051920356</v>
-      </c>
-      <c r="B171" t="s">
-        <v>94</v>
-      </c>
-      <c r="C171" t="s">
-        <v>83</v>
-      </c>
-      <c r="D171" t="s">
-        <v>163</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>21330051920356</v>
-      </c>
-      <c r="B172" t="s">
-        <v>94</v>
-      </c>
-      <c r="C172" t="s">
-        <v>83</v>
-      </c>
-      <c r="D172" t="s">
-        <v>163</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>21330051920356</v>
-      </c>
-      <c r="B173" t="s">
-        <v>94</v>
-      </c>
-      <c r="C173" t="s">
-        <v>83</v>
-      </c>
-      <c r="D173" t="s">
-        <v>163</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>21330051920356</v>
-      </c>
-      <c r="B174" t="s">
-        <v>94</v>
-      </c>
-      <c r="C174" t="s">
-        <v>83</v>
-      </c>
-      <c r="D174" t="s">
-        <v>163</v>
-      </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>21330051920356</v>
-      </c>
-      <c r="B175" t="s">
-        <v>94</v>
-      </c>
-      <c r="C175" t="s">
-        <v>83</v>
-      </c>
-      <c r="D175" t="s">
-        <v>163</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>21330051920019</v>
-      </c>
-      <c r="B176" t="s">
-        <v>95</v>
-      </c>
-      <c r="C176" t="s">
-        <v>127</v>
-      </c>
-      <c r="D176" t="s">
-        <v>164</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>21330051920019</v>
-      </c>
-      <c r="B177" t="s">
-        <v>95</v>
-      </c>
-      <c r="C177" t="s">
-        <v>127</v>
-      </c>
-      <c r="D177" t="s">
-        <v>164</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>21330051920019</v>
-      </c>
-      <c r="B178" t="s">
-        <v>95</v>
-      </c>
-      <c r="C178" t="s">
-        <v>127</v>
-      </c>
-      <c r="D178" t="s">
-        <v>164</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>21330051920019</v>
-      </c>
-      <c r="B179" t="s">
-        <v>95</v>
-      </c>
-      <c r="C179" t="s">
-        <v>127</v>
-      </c>
-      <c r="D179" t="s">
-        <v>164</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>21330051920019</v>
-      </c>
-      <c r="B180" t="s">
-        <v>95</v>
-      </c>
-      <c r="C180" t="s">
-        <v>127</v>
-      </c>
-      <c r="D180" t="s">
-        <v>164</v>
-      </c>
-      <c r="E180" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>21330051920019</v>
-      </c>
-      <c r="B181" t="s">
-        <v>95</v>
-      </c>
-      <c r="C181" t="s">
-        <v>127</v>
-      </c>
-      <c r="D181" t="s">
-        <v>164</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>21330051920020</v>
-      </c>
-      <c r="B182" t="s">
-        <v>96</v>
-      </c>
-      <c r="C182" t="s">
-        <v>128</v>
-      </c>
-      <c r="D182" t="s">
-        <v>165</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>21330051920020</v>
-      </c>
-      <c r="B183" t="s">
-        <v>96</v>
-      </c>
-      <c r="C183" t="s">
-        <v>128</v>
-      </c>
-      <c r="D183" t="s">
-        <v>165</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>21330051920020</v>
-      </c>
-      <c r="B184" t="s">
-        <v>96</v>
-      </c>
-      <c r="C184" t="s">
-        <v>128</v>
-      </c>
-      <c r="D184" t="s">
-        <v>165</v>
-      </c>
-      <c r="E184" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>21330051920020</v>
-      </c>
-      <c r="B185" t="s">
-        <v>96</v>
-      </c>
-      <c r="C185" t="s">
-        <v>128</v>
-      </c>
-      <c r="D185" t="s">
-        <v>165</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>21330051920020</v>
-      </c>
-      <c r="B186" t="s">
-        <v>96</v>
-      </c>
-      <c r="C186" t="s">
-        <v>128</v>
-      </c>
-      <c r="D186" t="s">
-        <v>165</v>
-      </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>21330051920020</v>
-      </c>
-      <c r="B187" t="s">
-        <v>96</v>
-      </c>
-      <c r="C187" t="s">
-        <v>128</v>
-      </c>
-      <c r="D187" t="s">
-        <v>165</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>21330051920021</v>
-      </c>
-      <c r="B188" t="s">
-        <v>97</v>
-      </c>
-      <c r="C188" t="s">
-        <v>129</v>
-      </c>
-      <c r="D188" t="s">
-        <v>166</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>21330051920021</v>
-      </c>
-      <c r="B189" t="s">
-        <v>97</v>
-      </c>
-      <c r="C189" t="s">
-        <v>129</v>
-      </c>
-      <c r="D189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E189" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>21330051920021</v>
-      </c>
-      <c r="B190" t="s">
-        <v>97</v>
-      </c>
-      <c r="C190" t="s">
-        <v>129</v>
-      </c>
-      <c r="D190" t="s">
-        <v>166</v>
-      </c>
-      <c r="E190" t="s">
-        <v>5</v>
-      </c>
-      <c r="F190" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>21330051920021</v>
-      </c>
-      <c r="B191" t="s">
-        <v>97</v>
-      </c>
-      <c r="C191" t="s">
-        <v>129</v>
-      </c>
-      <c r="D191" t="s">
-        <v>166</v>
-      </c>
-      <c r="E191" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>21330051920021</v>
-      </c>
-      <c r="B192" t="s">
-        <v>97</v>
-      </c>
-      <c r="C192" t="s">
-        <v>129</v>
-      </c>
-      <c r="D192" t="s">
-        <v>166</v>
-      </c>
-      <c r="E192" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>21330051920021</v>
-      </c>
-      <c r="B193" t="s">
-        <v>97</v>
-      </c>
-      <c r="C193" t="s">
-        <v>129</v>
-      </c>
-      <c r="D193" t="s">
-        <v>166</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>21330051920022</v>
-      </c>
-      <c r="B194" t="s">
-        <v>98</v>
-      </c>
-      <c r="C194" t="s">
-        <v>130</v>
-      </c>
-      <c r="D194" t="s">
-        <v>167</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>21330051920022</v>
-      </c>
-      <c r="B195" t="s">
-        <v>98</v>
-      </c>
-      <c r="C195" t="s">
-        <v>130</v>
-      </c>
-      <c r="D195" t="s">
-        <v>167</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>21330051920022</v>
-      </c>
-      <c r="B196" t="s">
-        <v>98</v>
-      </c>
-      <c r="C196" t="s">
-        <v>130</v>
-      </c>
-      <c r="D196" t="s">
-        <v>167</v>
-      </c>
-      <c r="E196" t="s">
-        <v>5</v>
-      </c>
-      <c r="F196" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>21330051920022</v>
-      </c>
-      <c r="B197" t="s">
-        <v>98</v>
-      </c>
-      <c r="C197" t="s">
-        <v>130</v>
-      </c>
-      <c r="D197" t="s">
-        <v>167</v>
-      </c>
-      <c r="E197" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>21330051920022</v>
-      </c>
-      <c r="B198" t="s">
-        <v>98</v>
-      </c>
-      <c r="C198" t="s">
-        <v>130</v>
-      </c>
-      <c r="D198" t="s">
-        <v>167</v>
-      </c>
-      <c r="E198" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>21330051920022</v>
-      </c>
-      <c r="B199" t="s">
-        <v>98</v>
-      </c>
-      <c r="C199" t="s">
-        <v>130</v>
-      </c>
-      <c r="D199" t="s">
-        <v>167</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>21330051920023</v>
-      </c>
-      <c r="B200" t="s">
-        <v>99</v>
-      </c>
-      <c r="C200" t="s">
-        <v>122</v>
-      </c>
-      <c r="D200" t="s">
-        <v>168</v>
-      </c>
-      <c r="E200" t="s">
-        <v>8</v>
-      </c>
-      <c r="F200" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>21330051920023</v>
-      </c>
-      <c r="B201" t="s">
-        <v>99</v>
-      </c>
-      <c r="C201" t="s">
-        <v>122</v>
-      </c>
-      <c r="D201" t="s">
-        <v>168</v>
-      </c>
-      <c r="E201" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>21330051920023</v>
-      </c>
-      <c r="B202" t="s">
-        <v>99</v>
-      </c>
-      <c r="C202" t="s">
-        <v>122</v>
-      </c>
-      <c r="D202" t="s">
-        <v>168</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>21330051920023</v>
-      </c>
-      <c r="B203" t="s">
-        <v>99</v>
-      </c>
-      <c r="C203" t="s">
-        <v>122</v>
-      </c>
-      <c r="D203" t="s">
-        <v>168</v>
-      </c>
-      <c r="E203" t="s">
-        <v>6</v>
-      </c>
-      <c r="F203" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>21330051920023</v>
-      </c>
-      <c r="B204" t="s">
-        <v>99</v>
-      </c>
-      <c r="C204" t="s">
-        <v>122</v>
-      </c>
-      <c r="D204" t="s">
-        <v>168</v>
-      </c>
-      <c r="E204" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>21330051920023</v>
-      </c>
-      <c r="B205" t="s">
-        <v>99</v>
-      </c>
-      <c r="C205" t="s">
-        <v>122</v>
-      </c>
-      <c r="D205" t="s">
-        <v>168</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>21330051920024</v>
-      </c>
-      <c r="B206" t="s">
-        <v>100</v>
-      </c>
-      <c r="C206" t="s">
-        <v>131</v>
-      </c>
-      <c r="D206" t="s">
-        <v>169</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>21330051920024</v>
-      </c>
-      <c r="B207" t="s">
-        <v>100</v>
-      </c>
-      <c r="C207" t="s">
-        <v>131</v>
-      </c>
-      <c r="D207" t="s">
-        <v>169</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>21330051920024</v>
-      </c>
-      <c r="B208" t="s">
-        <v>100</v>
-      </c>
-      <c r="C208" t="s">
-        <v>131</v>
-      </c>
-      <c r="D208" t="s">
-        <v>169</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>21330051920024</v>
-      </c>
-      <c r="B209" t="s">
-        <v>100</v>
-      </c>
-      <c r="C209" t="s">
-        <v>131</v>
-      </c>
-      <c r="D209" t="s">
-        <v>169</v>
-      </c>
-      <c r="E209" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>21330051920024</v>
-      </c>
-      <c r="B210" t="s">
-        <v>100</v>
-      </c>
-      <c r="C210" t="s">
-        <v>131</v>
-      </c>
-      <c r="D210" t="s">
-        <v>169</v>
-      </c>
-      <c r="E210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>21330051920024</v>
-      </c>
-      <c r="B211" t="s">
-        <v>100</v>
-      </c>
-      <c r="C211" t="s">
-        <v>131</v>
-      </c>
-      <c r="D211" t="s">
-        <v>169</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>21330051920025</v>
-      </c>
-      <c r="B212" t="s">
-        <v>101</v>
-      </c>
-      <c r="C212" t="s">
-        <v>132</v>
-      </c>
-      <c r="D212" t="s">
-        <v>170</v>
-      </c>
-      <c r="E212" t="s">
-        <v>8</v>
-      </c>
-      <c r="F212" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>21330051920025</v>
-      </c>
-      <c r="B213" t="s">
-        <v>101</v>
-      </c>
-      <c r="C213" t="s">
-        <v>132</v>
-      </c>
-      <c r="D213" t="s">
-        <v>170</v>
-      </c>
-      <c r="E213" t="s">
-        <v>7</v>
-      </c>
-      <c r="F213" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>21330051920025</v>
-      </c>
-      <c r="B214" t="s">
-        <v>101</v>
-      </c>
-      <c r="C214" t="s">
-        <v>132</v>
-      </c>
-      <c r="D214" t="s">
-        <v>170</v>
-      </c>
-      <c r="E214" t="s">
-        <v>5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>21330051920025</v>
-      </c>
-      <c r="B215" t="s">
-        <v>101</v>
-      </c>
-      <c r="C215" t="s">
-        <v>132</v>
-      </c>
-      <c r="D215" t="s">
-        <v>170</v>
-      </c>
-      <c r="E215" t="s">
-        <v>6</v>
-      </c>
-      <c r="F215" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>21330051920025</v>
-      </c>
-      <c r="B216" t="s">
-        <v>101</v>
-      </c>
-      <c r="C216" t="s">
-        <v>132</v>
-      </c>
-      <c r="D216" t="s">
-        <v>170</v>
-      </c>
-      <c r="E216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>21330051920025</v>
-      </c>
-      <c r="B217" t="s">
-        <v>101</v>
-      </c>
-      <c r="C217" t="s">
-        <v>132</v>
-      </c>
-      <c r="D217" t="s">
-        <v>170</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>21330051920026</v>
-      </c>
-      <c r="B218" t="s">
-        <v>102</v>
-      </c>
-      <c r="C218" t="s">
-        <v>122</v>
-      </c>
-      <c r="D218" t="s">
-        <v>171</v>
-      </c>
-      <c r="E218" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>21330051920026</v>
-      </c>
-      <c r="B219" t="s">
-        <v>102</v>
-      </c>
-      <c r="C219" t="s">
-        <v>122</v>
-      </c>
-      <c r="D219" t="s">
-        <v>171</v>
-      </c>
-      <c r="E219" t="s">
-        <v>7</v>
-      </c>
-      <c r="F219" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>21330051920026</v>
-      </c>
-      <c r="B220" t="s">
-        <v>102</v>
-      </c>
-      <c r="C220" t="s">
-        <v>122</v>
-      </c>
-      <c r="D220" t="s">
-        <v>171</v>
-      </c>
-      <c r="E220" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>21330051920026</v>
-      </c>
-      <c r="B221" t="s">
-        <v>102</v>
-      </c>
-      <c r="C221" t="s">
-        <v>122</v>
-      </c>
-      <c r="D221" t="s">
-        <v>171</v>
-      </c>
-      <c r="E221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>21330051920026</v>
-      </c>
-      <c r="B222" t="s">
-        <v>102</v>
-      </c>
-      <c r="C222" t="s">
-        <v>122</v>
-      </c>
-      <c r="D222" t="s">
-        <v>171</v>
-      </c>
-      <c r="E222" t="s">
-        <v>10</v>
-      </c>
-      <c r="F222" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>21330051920026</v>
-      </c>
-      <c r="B223" t="s">
-        <v>102</v>
-      </c>
-      <c r="C223" t="s">
-        <v>122</v>
-      </c>
-      <c r="D223" t="s">
-        <v>171</v>
-      </c>
-      <c r="E223" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>21330051920027</v>
-      </c>
-      <c r="B224" t="s">
-        <v>103</v>
-      </c>
-      <c r="C224" t="s">
-        <v>133</v>
-      </c>
-      <c r="D224" t="s">
-        <v>152</v>
-      </c>
-      <c r="E224" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>21330051920027</v>
-      </c>
-      <c r="B225" t="s">
-        <v>103</v>
-      </c>
-      <c r="C225" t="s">
-        <v>133</v>
-      </c>
-      <c r="D225" t="s">
-        <v>152</v>
-      </c>
-      <c r="E225" t="s">
-        <v>7</v>
-      </c>
-      <c r="F225" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>21330051920027</v>
-      </c>
-      <c r="B226" t="s">
-        <v>103</v>
-      </c>
-      <c r="C226" t="s">
-        <v>133</v>
-      </c>
-      <c r="D226" t="s">
-        <v>152</v>
-      </c>
-      <c r="E226" t="s">
-        <v>5</v>
-      </c>
-      <c r="F226" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>21330051920027</v>
-      </c>
-      <c r="B227" t="s">
-        <v>103</v>
-      </c>
-      <c r="C227" t="s">
-        <v>133</v>
-      </c>
-      <c r="D227" t="s">
-        <v>152</v>
-      </c>
-      <c r="E227" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>21330051920027</v>
-      </c>
-      <c r="B228" t="s">
-        <v>103</v>
-      </c>
-      <c r="C228" t="s">
-        <v>133</v>
-      </c>
-      <c r="D228" t="s">
-        <v>152</v>
-      </c>
-      <c r="E228" t="s">
-        <v>10</v>
-      </c>
-      <c r="F228" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>21330051920027</v>
-      </c>
-      <c r="B229" t="s">
-        <v>103</v>
-      </c>
-      <c r="C229" t="s">
-        <v>133</v>
-      </c>
-      <c r="D229" t="s">
-        <v>152</v>
-      </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230">
-        <v>21330051920028</v>
-      </c>
-      <c r="B230" t="s">
-        <v>104</v>
-      </c>
-      <c r="C230" t="s">
-        <v>134</v>
-      </c>
-      <c r="D230" t="s">
-        <v>172</v>
-      </c>
-      <c r="E230" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231">
-        <v>21330051920028</v>
-      </c>
-      <c r="B231" t="s">
-        <v>104</v>
-      </c>
-      <c r="C231" t="s">
-        <v>134</v>
-      </c>
-      <c r="D231" t="s">
-        <v>172</v>
-      </c>
-      <c r="E231" t="s">
-        <v>7</v>
-      </c>
-      <c r="F231" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
-        <v>21330051920028</v>
-      </c>
-      <c r="B232" t="s">
-        <v>104</v>
-      </c>
-      <c r="C232" t="s">
-        <v>134</v>
-      </c>
-      <c r="D232" t="s">
-        <v>172</v>
-      </c>
-      <c r="E232" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
-        <v>21330051920028</v>
-      </c>
-      <c r="B233" t="s">
-        <v>104</v>
-      </c>
-      <c r="C233" t="s">
-        <v>134</v>
-      </c>
-      <c r="D233" t="s">
-        <v>172</v>
-      </c>
-      <c r="E233" t="s">
-        <v>6</v>
-      </c>
-      <c r="F233" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
-        <v>21330051920028</v>
-      </c>
-      <c r="B234" t="s">
-        <v>104</v>
-      </c>
-      <c r="C234" t="s">
-        <v>134</v>
-      </c>
-      <c r="D234" t="s">
-        <v>172</v>
-      </c>
-      <c r="E234" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
-        <v>21330051920028</v>
-      </c>
-      <c r="B235" t="s">
-        <v>104</v>
-      </c>
-      <c r="C235" t="s">
-        <v>134</v>
-      </c>
-      <c r="D235" t="s">
-        <v>172</v>
-      </c>
-      <c r="E235" t="s">
-        <v>9</v>
-      </c>
-      <c r="F235" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8993,7 +6122,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9005,33 +6134,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>21330051920001</v>
+        <v>21330051920380</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -9039,16 +6168,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>21330051920002</v>
+        <v>21330051920385</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -9056,16 +6185,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920003</v>
+        <v>21330051920393</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -9073,614 +6202,631 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920004</v>
+        <v>20330051920018</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920005</v>
+        <v>21330051920013</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920006</v>
+        <v>21330051920014</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920007</v>
+        <v>20330051920019</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920008</v>
+        <v>21330051920016</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920049</v>
+        <v>21330051920020</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920380</v>
+        <v>21330051920024</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920291</v>
+        <v>21330051920009</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920009</v>
+        <v>21330051920023</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920010</v>
+        <v>21330051920007</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920355</v>
+        <v>21330051920012</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920011</v>
+        <v>21330051920025</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920012</v>
+        <v>21330051920026</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920018</v>
+        <v>21330051920003</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920013</v>
+        <v>21330051920005</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920014</v>
+        <v>21330051920006</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920019</v>
+        <v>21330051920017</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920391</v>
+        <v>21330051920379</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920015</v>
+        <v>21330051920002</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920016</v>
+        <v>20330051920291</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21330051920017</v>
+        <v>21330051920355</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920022</v>
+        <v>21330051920001</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21330051920379</v>
+        <v>21330051920004</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920385</v>
+        <v>21330051920008</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920018</v>
+        <v>20330051920049</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21330051920356</v>
+        <v>21330051920010</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21330051920019</v>
+        <v>21330051920011</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21330051920020</v>
+        <v>20330051920391</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21330051920021</v>
+        <v>21330051920015</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>21330051920022</v>
+        <v>20330051920022</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21330051920023</v>
+        <v>21330051920018</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21330051920024</v>
+        <v>21330051920356</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21330051920025</v>
+        <v>21330051920019</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21330051920026</v>
+        <v>21330051920021</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21330051920027</v>
+        <v>21330051920022</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
+        <v>21330051920027</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>21330051920028</v>
       </c>
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9702,22 +6848,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -9731,16 +6877,16 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -9754,16 +6900,16 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -9777,16 +6923,16 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9800,16 +6946,16 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -9823,16 +6969,16 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -9846,16 +6992,16 @@
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -9866,19 +7012,19 @@
         <v>21330051920017</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -9889,19 +7035,19 @@
         <v>21330051920017</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -9912,19 +7058,19 @@
         <v>21330051920379</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -9935,19 +7081,19 @@
         <v>21330051920379</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -9961,16 +7107,16 @@
         <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -9981,19 +7127,19 @@
         <v>20330051920291</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -10004,19 +7150,19 @@
         <v>21330051920355</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14">
         <v>-1</v>

--- a/grupos/1AV - Estadisticos 20211.xlsx
+++ b/grupos/1AV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="177">
   <si>
     <t>Materia</t>
   </si>
@@ -203,19 +203,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
+    <t>Bautista Sarao Eutiquio</t>
+  </si>
+  <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
     <t>Saucedo Rivalcoba Graciela</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>Bautista Sarao Eutiquio</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
     <t>Pesce Bautista Victor Manuel</t>
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1556,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V10">
         <v>6</v>
@@ -1810,7 +1810,7 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1864,7 +1864,7 @@
         <v>-1</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -2027,7 +2027,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -2349,7 +2349,7 @@
         <v>-1</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -2403,7 +2403,7 @@
         <v>-1</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V21">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>-1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>-1</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2634,7 +2634,7 @@
         <v>-1</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -3658,7 +3658,7 @@
         <v>-1</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3712,7 +3712,7 @@
         <v>-1</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V38">
         <v>6</v>
@@ -3735,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -3789,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -4043,7 +4043,7 @@
         <v>-1</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -4097,7 +4097,7 @@
         <v>-1</v>
       </c>
       <c r="U43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V43">
         <v>-1</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -4177,30 +4177,30 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I3">
         <v>17</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -4241,30 +4241,30 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.5</v>
+        <v>62.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -4273,30 +4273,30 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>37.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4305,25 +4305,25 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>67.5</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>32.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4340,22 +4340,22 @@
         <v>31</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>77.5</v>
       </c>
       <c r="G7">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4365,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4412,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4432,7 +4432,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4452,7 +4452,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4472,7 +4472,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4492,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4512,7 +4512,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4532,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4552,7 +4552,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4569,30 +4569,30 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920007</v>
+        <v>21330051920380</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4609,10 +4609,10 @@
         <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4629,7 +4629,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
@@ -4649,10 +4649,10 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4669,70 +4669,70 @@
         <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920380</v>
+        <v>20330051920291</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920380</v>
+        <v>21330051920009</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920291</v>
+        <v>21330051920009</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4749,7 +4749,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -4757,142 +4757,142 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920009</v>
+        <v>21330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920009</v>
+        <v>21330051920012</v>
       </c>
       <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920009</v>
+        <v>21330051920012</v>
       </c>
       <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920355</v>
+        <v>21330051920012</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920012</v>
+        <v>20330051920018</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920012</v>
+        <v>20330051920018</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920012</v>
+        <v>20330051920018</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4909,10 +4909,10 @@
         <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4929,70 +4929,70 @@
         <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920018</v>
+        <v>21330051920013</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920018</v>
+        <v>21330051920013</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920018</v>
+        <v>21330051920013</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5009,7 +5009,7 @@
         <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
         <v>62</v>
@@ -5017,82 +5017,82 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920013</v>
+        <v>21330051920014</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920013</v>
+        <v>21330051920014</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920013</v>
+        <v>21330051920014</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920013</v>
+        <v>21330051920014</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5109,7 +5109,7 @@
         <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>62</v>
@@ -5117,179 +5117,179 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920014</v>
+        <v>20330051920019</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920014</v>
+        <v>20330051920019</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920014</v>
+        <v>20330051920019</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920014</v>
+        <v>20330051920019</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920019</v>
+        <v>21330051920016</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920019</v>
+        <v>21330051920016</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920019</v>
+        <v>21330051920016</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920019</v>
+        <v>21330051920016</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920019</v>
+        <v>21330051920017</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
         <v>63</v>
@@ -5297,19 +5297,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>21330051920016</v>
+        <v>21330051920017</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>62</v>
@@ -5317,59 +5317,59 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21330051920016</v>
+        <v>21330051920379</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>21330051920016</v>
+        <v>21330051920379</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>21330051920016</v>
+        <v>21330051920385</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>61</v>
@@ -5377,19 +5377,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>21330051920016</v>
+        <v>21330051920385</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>63</v>
@@ -5397,19 +5397,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>21330051920017</v>
+        <v>21330051920385</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
         <v>64</v>
@@ -5417,39 +5417,39 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>21330051920017</v>
+        <v>21330051920385</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>21330051920379</v>
+        <v>21330051920385</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
         <v>62</v>
@@ -5457,299 +5457,299 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>21330051920379</v>
+        <v>21330051920385</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>21330051920385</v>
+        <v>21330051920020</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>21330051920385</v>
+        <v>21330051920020</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>21330051920385</v>
+        <v>21330051920020</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>21330051920385</v>
+        <v>21330051920020</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>21330051920385</v>
+        <v>21330051920020</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>21330051920385</v>
+        <v>21330051920023</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>21330051920020</v>
+        <v>21330051920023</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>21330051920020</v>
+        <v>21330051920023</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>21330051920020</v>
+        <v>21330051920024</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>21330051920020</v>
+        <v>21330051920024</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>21330051920020</v>
+        <v>21330051920024</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>21330051920023</v>
+        <v>21330051920024</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>21330051920023</v>
+        <v>21330051920024</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>21330051920023</v>
+        <v>21330051920025</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
         <v>61</v>
@@ -5757,99 +5757,99 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>21330051920023</v>
+        <v>21330051920025</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>21330051920024</v>
+        <v>21330051920026</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>21330051920024</v>
+        <v>21330051920026</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>21330051920024</v>
+        <v>21330051920026</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>21330051920024</v>
+        <v>21330051920393</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
         <v>61</v>
@@ -5857,19 +5857,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>21330051920024</v>
+        <v>21330051920393</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
         <v>63</v>
@@ -5877,241 +5877,61 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>21330051920025</v>
+        <v>21330051920393</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>21330051920025</v>
+        <v>21330051920393</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>21330051920025</v>
+        <v>21330051920393</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920026</v>
-      </c>
-      <c r="B79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920026</v>
-      </c>
-      <c r="B80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920026</v>
-      </c>
-      <c r="B81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920393</v>
-      </c>
-      <c r="B82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920393</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" t="s">
-        <v>136</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920393</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" t="s">
-        <v>136</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920393</v>
-      </c>
-      <c r="B85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920393</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920393</v>
-      </c>
-      <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6151,16 +5971,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>21330051920380</v>
+        <v>21330051920385</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -6168,50 +5988,50 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>21330051920385</v>
+        <v>21330051920380</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920393</v>
+        <v>20330051920018</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920018</v>
+        <v>21330051920014</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -6219,16 +6039,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920013</v>
+        <v>21330051920020</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -6236,16 +6056,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920014</v>
+        <v>21330051920024</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -6253,16 +6073,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920019</v>
+        <v>21330051920393</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -6270,53 +6090,53 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920016</v>
+        <v>21330051920013</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920020</v>
+        <v>20330051920019</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920024</v>
+        <v>21330051920016</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6333,38 +6153,38 @@
         <v>120</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920023</v>
+        <v>21330051920012</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920007</v>
+        <v>21330051920023</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -6372,16 +6192,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920012</v>
+        <v>21330051920026</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -6389,50 +6209,50 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920025</v>
+        <v>21330051920003</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920026</v>
+        <v>21330051920005</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920003</v>
+        <v>21330051920006</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -6440,16 +6260,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920005</v>
+        <v>21330051920007</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -6457,16 +6277,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920006</v>
+        <v>21330051920017</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -6474,16 +6294,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920017</v>
+        <v>21330051920379</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -6491,16 +6311,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920379</v>
+        <v>21330051920025</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -6836,7 +6656,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6886,7 +6706,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -6909,7 +6729,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -6932,7 +6752,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -6955,7 +6775,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6978,7 +6798,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -7001,7 +6821,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -7009,22 +6829,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920017</v>
+        <v>21330051920007</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -7032,22 +6852,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920017</v>
+        <v>21330051920007</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -7055,22 +6875,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920379</v>
+        <v>21330051920017</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -7078,19 +6898,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920379</v>
+        <v>21330051920017</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -7101,22 +6921,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920002</v>
+        <v>21330051920379</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -7124,19 +6944,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920291</v>
+        <v>21330051920379</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>61</v>
@@ -7147,24 +6967,116 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
+        <v>21330051920025</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21330051920025</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21330051920002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920291</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
         <v>21330051920355</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18">
         <v>-1</v>
       </c>
     </row>
